--- a/teaching/traditional_assets/database/data/peru/peru_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/peru/peru_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1905</v>
+        <v>0.112</v>
       </c>
       <c r="E2">
-        <v>0.241</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="G2">
-        <v>0.2690055783504679</v>
+        <v>0.3314814814814815</v>
       </c>
       <c r="H2">
-        <v>0.2690055783504679</v>
+        <v>0.3314814814814815</v>
       </c>
       <c r="I2">
-        <v>0.2970817389700797</v>
+        <v>0.3393518518518518</v>
       </c>
       <c r="J2">
-        <v>0.2352490646369701</v>
+        <v>0.2428425390708628</v>
       </c>
       <c r="K2">
-        <v>6.528</v>
+        <v>6.14</v>
       </c>
       <c r="L2">
-        <v>0.3009543128486469</v>
+        <v>0.2842592592592592</v>
       </c>
       <c r="M2">
-        <v>5.08</v>
+        <v>5.87</v>
       </c>
       <c r="N2">
-        <v>0.0319496855345912</v>
+        <v>0.04811475409836066</v>
       </c>
       <c r="O2">
-        <v>0.7781862745098038</v>
+        <v>0.9560260586319219</v>
       </c>
       <c r="P2">
-        <v>5.08</v>
+        <v>5.87</v>
       </c>
       <c r="Q2">
-        <v>0.0319496855345912</v>
+        <v>0.04811475409836066</v>
       </c>
       <c r="R2">
-        <v>0.7781862745098038</v>
+        <v>0.9560260586319219</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.06</v>
+        <v>2.77</v>
       </c>
       <c r="V2">
-        <v>0.03811320754716981</v>
+        <v>0.02270491803278689</v>
       </c>
       <c r="W2">
-        <v>0.201104331909701</v>
+        <v>0.1035413153456998</v>
       </c>
       <c r="X2">
-        <v>0.02874723280225246</v>
+        <v>0.0193322958805533</v>
       </c>
       <c r="Y2">
-        <v>0.1723570991074486</v>
+        <v>0.08420901946514653</v>
       </c>
       <c r="Z2">
-        <v>0.6341841358945122</v>
+        <v>0.6607525237075559</v>
       </c>
       <c r="AA2">
-        <v>0.3528532860931791</v>
+        <v>0.1604588205546233</v>
       </c>
       <c r="AB2">
-        <v>0.02874723280225246</v>
+        <v>0.01941958683860227</v>
       </c>
       <c r="AC2">
-        <v>0.3241060532909267</v>
+        <v>0.1410392337160211</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AG2">
-        <v>-6.06</v>
+        <v>3.92</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0519853912502914</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.1055371509701846</v>
       </c>
       <c r="AJ2">
-        <v>-0.03962338171832092</v>
+        <v>0.03113087674714105</v>
       </c>
       <c r="AK2">
-        <v>-0.1095048789302494</v>
+        <v>0.06466512702078522</v>
       </c>
       <c r="AL2">
-        <v>0.142</v>
+        <v>0.585</v>
       </c>
       <c r="AM2">
-        <v>-0.413</v>
+        <v>0.585</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.8654592496765847</v>
       </c>
       <c r="AO2">
-        <v>45.38028169014085</v>
+        <v>12.52991452991453</v>
       </c>
       <c r="AP2">
-        <v>-0.851243152128108</v>
+        <v>0.5071151358344114</v>
       </c>
       <c r="AQ2">
-        <v>-15.60290556900726</v>
+        <v>12.52991452991453</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BBVA Sociedad Titulizadora S.A. (BVL:FIBPRIME)</t>
+          <t>Bolsa de Valores de Lima S.A.A. (BVL:BVLAC1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,249 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.244</v>
+        <v>0.112</v>
       </c>
       <c r="E3">
-        <v>0.376</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="G3">
-        <v>0.6265984654731458</v>
+        <v>0.3314814814814815</v>
       </c>
       <c r="H3">
-        <v>0.6265984654731458</v>
+        <v>0.3314814814814815</v>
       </c>
       <c r="I3">
-        <v>0.9053708439897697</v>
+        <v>0.3393518518518518</v>
       </c>
       <c r="J3">
-        <v>0.765365043372795</v>
+        <v>0.2428425390708628</v>
       </c>
       <c r="K3">
-        <v>0.328</v>
+        <v>6.14</v>
       </c>
       <c r="L3">
-        <v>0.8388746803069054</v>
+        <v>0.2842592592592592</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>5.87</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.04811475409836066</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.9560260586319219</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>5.87</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04811475409836066</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.9560260586319219</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>1.45</v>
+        <v>2.77</v>
       </c>
       <c r="V3">
-        <v>0.04027777777777777</v>
+        <v>0.02270491803278689</v>
       </c>
       <c r="W3">
-        <v>0.2981818181818182</v>
+        <v>0.1035413153456998</v>
       </c>
       <c r="X3">
-        <v>0.02874723280225246</v>
+        <v>0.0193322958805533</v>
       </c>
       <c r="Y3">
-        <v>0.2694345853795657</v>
+        <v>0.08420901946514653</v>
       </c>
       <c r="Z3">
-        <v>0.7476099426386231</v>
+        <v>0.6607525237075559</v>
       </c>
       <c r="AA3">
-        <v>0.5721945161735427</v>
+        <v>0.1604588205546233</v>
       </c>
       <c r="AB3">
-        <v>0.02874723280225246</v>
+        <v>0.01941958683860227</v>
       </c>
       <c r="AC3">
-        <v>0.5434472833712902</v>
+        <v>0.1410392337160211</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="AG3">
-        <v>-1.45</v>
+        <v>3.92</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0519853912502914</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.1055371509701846</v>
       </c>
       <c r="AJ3">
-        <v>-0.04196816208393633</v>
+        <v>0.03113087674714105</v>
       </c>
       <c r="AK3">
-        <v>28.99999999999998</v>
+        <v>0.06466512702078522</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="AM3">
-        <v>-0.047</v>
+        <v>0.585</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.8654592496765847</v>
+      </c>
+      <c r="AO3">
+        <v>12.52991452991453</v>
       </c>
       <c r="AP3">
-        <v>-3.929539295392954</v>
+        <v>0.5071151358344114</v>
       </c>
       <c r="AQ3">
-        <v>-7.531914893617021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolsa de Valores de Lima S.A.A. (BVL:BVLAC1)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.137</v>
-      </c>
-      <c r="E4">
-        <v>0.106</v>
-      </c>
-      <c r="G4">
-        <v>0.2624413145539906</v>
-      </c>
-      <c r="H4">
-        <v>0.2624413145539906</v>
-      </c>
-      <c r="I4">
-        <v>0.2859154929577465</v>
-      </c>
-      <c r="J4">
-        <v>0.2111120209629872</v>
-      </c>
-      <c r="K4">
-        <v>6.2</v>
-      </c>
-      <c r="L4">
-        <v>0.2910798122065728</v>
-      </c>
-      <c r="M4">
-        <v>5.08</v>
-      </c>
-      <c r="N4">
-        <v>0.04130081300813008</v>
-      </c>
-      <c r="O4">
-        <v>0.8193548387096774</v>
-      </c>
-      <c r="P4">
-        <v>5.08</v>
-      </c>
-      <c r="Q4">
-        <v>0.04130081300813008</v>
-      </c>
-      <c r="R4">
-        <v>0.8193548387096774</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4.61</v>
-      </c>
-      <c r="V4">
-        <v>0.03747967479674797</v>
-      </c>
-      <c r="W4">
-        <v>0.1040268456375839</v>
-      </c>
-      <c r="X4">
-        <v>0.02874723280225246</v>
-      </c>
-      <c r="Y4">
-        <v>0.07527961283533144</v>
-      </c>
-      <c r="Z4">
-        <v>0.6324228028503563</v>
-      </c>
-      <c r="AA4">
-        <v>0.1335120560128155</v>
-      </c>
-      <c r="AB4">
-        <v>0.02874723280225246</v>
-      </c>
-      <c r="AC4">
-        <v>0.1047648232105631</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-4.61</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.0389390995861137</v>
-      </c>
-      <c r="AK4">
-        <v>-0.08322801949810435</v>
-      </c>
-      <c r="AL4">
-        <v>0.142</v>
-      </c>
-      <c r="AM4">
-        <v>-0.366</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>42.88732394366198</v>
-      </c>
-      <c r="AP4">
-        <v>-0.682962962962963</v>
-      </c>
-      <c r="AQ4">
-        <v>-16.63934426229508</v>
+        <v>12.52991452991453</v>
       </c>
     </row>
   </sheetData>
